--- a/data/trans_camb/P16A17-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P16A17-Provincia-trans_camb.xlsx
@@ -601,13 +601,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-1.828994861075321</v>
+        <v>-1.931302503240061</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-1.963612513370615</v>
+        <v>-2.036280281665191</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-1.971607940959356</v>
+        <v>-1.938634351510308</v>
       </c>
     </row>
     <row r="6">
@@ -618,13 +618,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.8432057769418709</v>
+        <v>0.8172166566800004</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.4692982839551681</v>
+        <v>0.3551259519978588</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.4754796706383992</v>
+        <v>0.6100528676501252</v>
       </c>
     </row>
     <row r="7">
@@ -695,13 +695,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-1.017484180526288</v>
+        <v>-1.061696403183028</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-0.8157092588534504</v>
+        <v>-0.8850165134553565</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-1.194606556501271</v>
+        <v>-1.065837128411367</v>
       </c>
     </row>
     <row r="12">
@@ -712,13 +712,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>1.148260705185854</v>
+        <v>1.15343197717354</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>1.363073481643883</v>
+        <v>1.210515768257192</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.6464812036492755</v>
+        <v>0.5915310290927041</v>
       </c>
     </row>
     <row r="13">
@@ -789,13 +789,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-0.3003791290520497</v>
+        <v>-0.2988747362064481</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-1.515126962539465</v>
+        <v>-1.695256577234664</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-0.6142457485800841</v>
+        <v>-0.7289163727519983</v>
       </c>
     </row>
     <row r="18">
@@ -806,13 +806,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>2.174768261816892</v>
+        <v>2.182044149154764</v>
       </c>
       <c r="D18" s="5" t="n">
         <v>0</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>1.000838768597608</v>
+        <v>0.9695278166449594</v>
       </c>
     </row>
     <row r="19">
@@ -883,13 +883,13 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-1.4305500907493</v>
+        <v>-1.46755761238118</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-2.167325532677614</v>
+        <v>-2.204146407419453</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-2.424817307432016</v>
+        <v>-2.065428539690997</v>
       </c>
     </row>
     <row r="24">
@@ -900,13 +900,13 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>1.272312981515785</v>
+        <v>1.277079513689036</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>-0.2452646835757755</v>
+        <v>-0.2309452588142841</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>-0.101097649171639</v>
+        <v>-0.07411389465694775</v>
       </c>
     </row>
     <row r="25">
@@ -933,7 +933,9 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C26" s="6" t="inlineStr"/>
+      <c r="C26" s="6" t="n">
+        <v>-1</v>
+      </c>
       <c r="D26" s="6" t="inlineStr"/>
       <c r="E26" s="6" t="inlineStr"/>
     </row>
@@ -944,7 +946,9 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C27" s="6" t="inlineStr"/>
+      <c r="C27" s="6" t="n">
+        <v>4.600552850503981</v>
+      </c>
       <c r="D27" s="6" t="inlineStr"/>
       <c r="E27" s="6" t="inlineStr"/>
     </row>
@@ -966,7 +970,7 @@
         <v>1.181996161594527</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>-0.1311835228107814</v>
+        <v>-0.1311835228107815</v>
       </c>
     </row>
     <row r="29">
@@ -977,13 +981,13 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-2.598546850599963</v>
+        <v>-2.516624848019575</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-0.5952608643498807</v>
+        <v>-0.5677775295704809</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-1.689358410503688</v>
+        <v>-1.791264426733498</v>
       </c>
     </row>
     <row r="30">
@@ -997,10 +1001,10 @@
         <v>0</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>3.357796091104076</v>
+        <v>3.187302504513031</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>0.5537195340280718</v>
+        <v>0.539561262753063</v>
       </c>
     </row>
     <row r="31">
@@ -1017,7 +1021,7 @@
         <v>2.406766243780199</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>-0.2671142975754147</v>
+        <v>-0.2671142975754148</v>
       </c>
     </row>
     <row r="32">
@@ -1071,13 +1075,13 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>-2.847814862264757</v>
+        <v>-2.742048187860478</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>-3.57930185340021</v>
+        <v>-3.660420194813828</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>-3.199248127862191</v>
+        <v>-3.331952374853679</v>
       </c>
     </row>
     <row r="36">
@@ -1088,13 +1092,13 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>0.6929363771505228</v>
+        <v>0.9272646408273595</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>-0.3684183118487054</v>
+        <v>-0.3617066670261759</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>0</v>
+        <v>0.003443291724233505</v>
       </c>
     </row>
     <row r="37">
@@ -1165,13 +1169,13 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>-1.075142577637536</v>
+        <v>-1.05643773479182</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>-0.9015222130176472</v>
+        <v>-0.9663725652801695</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>-0.9012591935067588</v>
+        <v>-0.98796551100279</v>
       </c>
     </row>
     <row r="42">
@@ -1182,13 +1186,13 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>0.8119317750130379</v>
+        <v>0.8611606499748974</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>1.109057097055065</v>
+        <v>1.048633680795898</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>0.7602427518411589</v>
+        <v>0.7064358988727961</v>
       </c>
     </row>
     <row r="43">
@@ -1217,10 +1221,10 @@
       </c>
       <c r="C44" s="6" t="inlineStr"/>
       <c r="D44" s="6" t="n">
-        <v>-0.8141268736052536</v>
+        <v>-0.8293333762599147</v>
       </c>
       <c r="E44" s="6" t="n">
-        <v>-0.7692275588724587</v>
+        <v>-0.8045859837339043</v>
       </c>
     </row>
     <row r="45">
@@ -1232,10 +1236,10 @@
       </c>
       <c r="C45" s="6" t="inlineStr"/>
       <c r="D45" s="6" t="n">
-        <v>4.094984058103298</v>
+        <v>3.444927825060907</v>
       </c>
       <c r="E45" s="6" t="n">
-        <v>3.26232603835579</v>
+        <v>2.328266982168302</v>
       </c>
     </row>
     <row r="46">
@@ -1256,7 +1260,7 @@
         <v>-0.1585386360785151</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>-0.005322631652520445</v>
+        <v>-0.005322631652520358</v>
       </c>
     </row>
     <row r="47">
@@ -1267,13 +1271,13 @@
         </is>
       </c>
       <c r="C47" s="5" t="n">
-        <v>-0.7151760404020455</v>
+        <v>-0.7610740175069692</v>
       </c>
       <c r="D47" s="5" t="n">
-        <v>-0.9489393605111686</v>
+        <v>-0.9019378011873216</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>-0.8296356707779378</v>
+        <v>-0.8391985377862843</v>
       </c>
     </row>
     <row r="48">
@@ -1284,13 +1288,13 @@
         </is>
       </c>
       <c r="C48" s="5" t="n">
-        <v>0.812920081282499</v>
+        <v>0.8918272291601236</v>
       </c>
       <c r="D48" s="5" t="n">
-        <v>0.4922436690807788</v>
+        <v>0.5380481657101522</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>0.6369497438785325</v>
+        <v>0.6382856000031278</v>
       </c>
     </row>
     <row r="49">
@@ -1307,7 +1311,7 @@
         <v>-0.2838830586796147</v>
       </c>
       <c r="E49" s="6" t="n">
-        <v>-0.009530831039785923</v>
+        <v>-0.009530831039785767</v>
       </c>
     </row>
     <row r="50">
@@ -1318,13 +1322,11 @@
         </is>
       </c>
       <c r="C50" s="6" t="n">
-        <v>-0.8253717535099692</v>
-      </c>
-      <c r="D50" s="6" t="n">
-        <v>-1</v>
-      </c>
+        <v>-0.8900985785967598</v>
+      </c>
+      <c r="D50" s="6" t="inlineStr"/>
       <c r="E50" s="6" t="n">
-        <v>-0.8191533852770509</v>
+        <v>-0.8426510747660259</v>
       </c>
     </row>
     <row r="51">
@@ -1335,13 +1337,11 @@
         </is>
       </c>
       <c r="C51" s="6" t="n">
-        <v>4.650472830074996</v>
-      </c>
-      <c r="D51" s="6" t="n">
-        <v>3.15695308607767</v>
-      </c>
+        <v>4.277148809851412</v>
+      </c>
+      <c r="D51" s="6" t="inlineStr"/>
       <c r="E51" s="6" t="n">
-        <v>4.002882101302442</v>
+        <v>3.631084919295773</v>
       </c>
     </row>
     <row r="52">
@@ -1362,7 +1362,7 @@
         <v>-0.2029292026679852</v>
       </c>
       <c r="E52" s="5" t="n">
-        <v>-0.2240606352730003</v>
+        <v>-0.2240606352730002</v>
       </c>
     </row>
     <row r="53">
@@ -1373,13 +1373,13 @@
         </is>
       </c>
       <c r="C53" s="5" t="n">
-        <v>-0.4721589475039013</v>
+        <v>-0.4803858895377482</v>
       </c>
       <c r="D53" s="5" t="n">
-        <v>-0.5729088640886424</v>
+        <v>-0.5731181942898735</v>
       </c>
       <c r="E53" s="5" t="n">
-        <v>-0.5808318522292844</v>
+        <v>-0.5916130185699389</v>
       </c>
     </row>
     <row r="54">
@@ -1390,13 +1390,13 @@
         </is>
       </c>
       <c r="C54" s="5" t="n">
-        <v>0.3484516176718546</v>
+        <v>0.288423048382809</v>
       </c>
       <c r="D54" s="5" t="n">
-        <v>0.1682452315171885</v>
+        <v>0.2013767744362334</v>
       </c>
       <c r="E54" s="5" t="n">
-        <v>0.08370709377203271</v>
+        <v>0.1003138226140046</v>
       </c>
     </row>
     <row r="55">
@@ -1413,7 +1413,7 @@
         <v>-0.2845184896525434</v>
       </c>
       <c r="E55" s="6" t="n">
-        <v>-0.3141459814572107</v>
+        <v>-0.3141459814572106</v>
       </c>
     </row>
     <row r="56">
@@ -1424,13 +1424,13 @@
         </is>
       </c>
       <c r="C56" s="6" t="n">
-        <v>-0.5213636731114835</v>
+        <v>-0.5210632402214145</v>
       </c>
       <c r="D56" s="6" t="n">
-        <v>-0.6093084140153984</v>
+        <v>-0.6122963612647953</v>
       </c>
       <c r="E56" s="6" t="n">
-        <v>-0.6037291192233346</v>
+        <v>-0.6048630261497114</v>
       </c>
     </row>
     <row r="57">
@@ -1441,13 +1441,13 @@
         </is>
       </c>
       <c r="C57" s="6" t="n">
-        <v>0.6914955158868413</v>
+        <v>0.5841399342566606</v>
       </c>
       <c r="D57" s="6" t="n">
-        <v>0.4032949579453973</v>
+        <v>0.4631268408505282</v>
       </c>
       <c r="E57" s="6" t="n">
-        <v>0.1810643921110849</v>
+        <v>0.2607249657391886</v>
       </c>
     </row>
     <row r="58">
